--- a/biology/Médecine/Rendez-vous_syncopal_des_sept_mètres/Rendez-vous_syncopal_des_sept_mètres.xlsx
+++ b/biology/Médecine/Rendez-vous_syncopal_des_sept_mètres/Rendez-vous_syncopal_des_sept_mètres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rendez-vous_syncopal_des_sept_m%C3%A8tres</t>
+          <t>Rendez-vous_syncopal_des_sept_mètres</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rendez-vous syncopal des sept mètres est un accident hypoxique qui affecte les plongeurs en apnée en profondeur. Il a été mis en évidence par le docteur Raymond Sciarli en 1961[réf. nécessaire]. Il a été établi depuis qu'il n'est pas lié à la zone des 7 m[réf. nécessaire].
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rendez-vous_syncopal_des_sept_m%C3%A8tres</t>
+          <t>Rendez-vous_syncopal_des_sept_mètres</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors de la descente en apnée, l'augmentation de la pression induit une meilleure diffusion de l'oxygène, ce qui donne une sensation d'aisance à l'apnéiste.
 À la remontée, le taux d’oxygène dans le sang chute brusquement. Le cerveau étant sensible au manque d'oxygène (l'organisme étant programmé pour donner priorité à d'autres organes vitaux), celui-ci se met en pause, provoquant une perte de connaissance (malaise hypoxique qualifié de syncope, bien que ce terme corresponde plutôt à un autre type de malaise mettant en jeu une forte bradycardie).
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rendez-vous_syncopal_des_sept_m%C3%A8tres</t>
+          <t>Rendez-vous_syncopal_des_sept_mètres</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'apnéiste est affecté par un malaise hypoxique lors du retour à la surface ou dans les secondes qui suivent (même s'il reprend sa ventilation, l'oxygène continue à diminuer dans le cerveau durant quelques secondes). Si la victime n'est pas remontée immédiatement, le réflexe d'inspiration provoqué par l'augmentation de la pression partielle de CO2 entraîne une noyade.
 </t>
